--- a/catalogueXlsx/catalogue1v000.xlsx
+++ b/catalogueXlsx/catalogue1v000.xlsx
@@ -14375,7 +14375,7 @@
   <dimension ref="A1:P911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="A1:P911"/>
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14487,7 +14487,7 @@
       <c r="L3" s="10">
         <v>5</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="9" t="s">
@@ -14537,7 +14537,7 @@
       <c r="L4" s="10">
         <v>11</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="9" t="s">
